--- a/Data_frame/balancos_definitivos/OMGE3.xlsx
+++ b/Data_frame/balancos_definitivos/OMGE3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG80"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,11 @@
           <t>30/09/2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -702,6 +707,9 @@
       <c r="AG2" t="n">
         <v>10175707.136</v>
       </c>
+      <c r="AH2" t="n">
+        <v>12851.859</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,6 +813,9 @@
       <c r="AG3" t="n">
         <v>1217702.016</v>
       </c>
+      <c r="AH3" t="n">
+        <v>2188.061</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -908,6 +919,9 @@
       <c r="AG4" t="n">
         <v>605724.992</v>
       </c>
+      <c r="AH4" t="n">
+        <v>47.879</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1011,6 +1025,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>1119.174</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1114,6 +1131,9 @@
       <c r="AG6" t="n">
         <v>270473.984</v>
       </c>
+      <c r="AH6" t="n">
+        <v>594.175</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1217,6 +1237,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1320,6 +1343,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1423,6 +1449,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>101.518</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1526,6 +1555,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1629,6 +1661,9 @@
       <c r="AG11" t="n">
         <v>341503.008</v>
       </c>
+      <c r="AH11" t="n">
+        <v>325.315</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1732,6 +1767,9 @@
       <c r="AG12" t="n">
         <v>672497.024</v>
       </c>
+      <c r="AH12" t="n">
+        <v>803.569</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1835,6 +1873,9 @@
       <c r="AG13" t="n">
         <v>439393.984</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1938,6 +1979,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2041,6 +2085,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>269.354</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2144,6 +2191,9 @@
       <c r="AG16" t="n">
         <v>9788</v>
       </c>
+      <c r="AH16" t="n">
+        <v>19.262</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2247,6 +2297,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2350,6 +2403,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2453,6 +2509,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>3.569</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2556,6 +2615,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2659,6 +2721,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>54.375</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2762,6 +2827,9 @@
       <c r="AG22" t="n">
         <v>819758.976</v>
       </c>
+      <c r="AH22" t="n">
+        <v>53.352</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2865,6 +2933,9 @@
       <c r="AG23" t="n">
         <v>6369296.896</v>
       </c>
+      <c r="AH23" t="n">
+        <v>7942.297</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2968,6 +3039,9 @@
       <c r="AG24" t="n">
         <v>1096451.968</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1864.58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3071,6 +3145,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3174,6 +3251,9 @@
       <c r="AG26" t="n">
         <v>10175707.136</v>
       </c>
+      <c r="AH26" t="n">
+        <v>12851.859</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3277,6 +3357,9 @@
       <c r="AG27" t="n">
         <v>709411.008</v>
       </c>
+      <c r="AH27" t="n">
+        <v>1177.842</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3380,6 +3463,9 @@
       <c r="AG28" t="n">
         <v>55253</v>
       </c>
+      <c r="AH28" t="n">
+        <v>23.808</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3483,6 +3569,9 @@
       <c r="AG29" t="n">
         <v>194986</v>
       </c>
+      <c r="AH29" t="n">
+        <v>222.036</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3586,6 +3675,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>74.896</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3689,6 +3781,9 @@
       <c r="AG31" t="n">
         <v>337425.984</v>
       </c>
+      <c r="AH31" t="n">
+        <v>625.915</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3792,6 +3887,9 @@
       <c r="AG32" t="n">
         <v>6907</v>
       </c>
+      <c r="AH32" t="n">
+        <v>27.794</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3895,6 +3993,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3998,6 +4099,9 @@
       <c r="AG34" t="n">
         <v>114839</v>
       </c>
+      <c r="AH34" t="n">
+        <v>203.393</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4101,6 +4205,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4204,6 +4311,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4307,6 +4417,9 @@
       <c r="AG37" t="n">
         <v>5698540.032</v>
       </c>
+      <c r="AH37" t="n">
+        <v>7021.378</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4410,6 +4523,9 @@
       <c r="AG38" t="n">
         <v>5448653.824</v>
       </c>
+      <c r="AH38" t="n">
+        <v>5905.636</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4513,6 +4629,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4616,6 +4735,9 @@
       <c r="AG40" t="n">
         <v>20034</v>
       </c>
+      <c r="AH40" t="n">
+        <v>575.013</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4719,6 +4841,9 @@
       <c r="AG41" t="n">
         <v>69435</v>
       </c>
+      <c r="AH41" t="n">
+        <v>540.729</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4822,6 +4947,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4925,6 +5053,9 @@
       <c r="AG43" t="n">
         <v>160416.992</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5028,6 +5159,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5131,6 +5265,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5234,6 +5371,9 @@
       <c r="AG46" t="n">
         <v>284187.008</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5337,6 +5477,9 @@
       <c r="AG47" t="n">
         <v>3483569.024</v>
       </c>
+      <c r="AH47" t="n">
+        <v>4652.639</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5440,6 +5583,9 @@
       <c r="AG48" t="n">
         <v>3843972.096</v>
       </c>
+      <c r="AH48" t="n">
+        <v>3968.679</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5543,6 +5689,9 @@
       <c r="AG49" t="n">
         <v>60875</v>
       </c>
+      <c r="AH49" t="n">
+        <v>62.54</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5646,6 +5795,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5749,6 +5901,9 @@
       <c r="AG51" t="n">
         <v>241618</v>
       </c>
+      <c r="AH51" t="n">
+        <v>804.378</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5852,6 +6007,9 @@
       <c r="AG52" t="n">
         <v>-271140</v>
       </c>
+      <c r="AH52" t="n">
+        <v>205.576</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5955,6 +6113,9 @@
       <c r="AG53" t="n">
         <v>-391756</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-388.534</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6058,6 +6219,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6161,6 +6325,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6262,6 +6429,9 @@
         <v>0</v>
       </c>
       <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6303,6 +6473,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6342,6 +6513,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6443,6 +6615,9 @@
       <c r="AG59" t="n">
         <v>454852.992</v>
       </c>
+      <c r="AH59" t="n">
+        <v>658.902</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6544,6 +6719,9 @@
       <c r="AG60" t="n">
         <v>-323744.992</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-515.924</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6645,6 +6823,9 @@
       <c r="AG61" t="n">
         <v>131108</v>
       </c>
+      <c r="AH61" t="n">
+        <v>142.978</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6746,6 +6927,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6847,6 +7031,9 @@
       <c r="AG63" t="n">
         <v>-20297</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-38.416</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6948,6 +7135,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7049,6 +7239,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-3.736</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7150,6 +7343,9 @@
       <c r="AG66" t="n">
         <v>2821</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7251,6 +7447,9 @@
       <c r="AG67" t="n">
         <v>36490</v>
       </c>
+      <c r="AH67" t="n">
+        <v>3.462</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7352,6 +7551,9 @@
       <c r="AG68" t="n">
         <v>-160504.992</v>
       </c>
+      <c r="AH68" t="n">
+        <v>-135.587</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7453,6 +7655,9 @@
       <c r="AG69" t="n">
         <v>11102</v>
       </c>
+      <c r="AH69" t="n">
+        <v>25.238</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7553,6 +7758,9 @@
       </c>
       <c r="AG70" t="n">
         <v>-171607.008</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>-160.825</v>
       </c>
     </row>
     <row r="71">
@@ -7593,6 +7801,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7632,6 +7841,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7671,6 +7881,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7772,6 +7983,9 @@
       <c r="AG74" t="n">
         <v>-10383</v>
       </c>
+      <c r="AH74" t="n">
+        <v>-31.299</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7873,6 +8087,9 @@
       <c r="AG75" t="n">
         <v>-15364</v>
       </c>
+      <c r="AH75" t="n">
+        <v>-16.945</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7973,6 +8190,9 @@
       </c>
       <c r="AG76" t="n">
         <v>0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.109</v>
       </c>
     </row>
     <row r="77">
@@ -8013,6 +8233,7 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8052,6 +8273,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8153,6 +8375,9 @@
       <c r="AG79" t="n">
         <v>-3623</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8253,6 +8478,9 @@
       </c>
       <c r="AG80" t="n">
         <v>-29370</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>-46.135</v>
       </c>
     </row>
   </sheetData>
